--- a/src/UserData.xlsx
+++ b/src/UserData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
   </si>
   <si>
     <t>邓有成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dyc123</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -420,7 +416,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -489,8 +485,8 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>383838</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
